--- a/excell_tables/X.xlsx
+++ b/excell_tables/X.xlsx
@@ -14,27 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>X, кВ</t>
   </si>
   <si>
-    <t>-0.009999999776482582j</t>
-  </si>
-  <si>
-    <t>-0j</t>
-  </si>
-  <si>
-    <t>(-0-0j)</t>
-  </si>
-  <si>
-    <t>-0.019999999552965164j</t>
-  </si>
-  <si>
-    <t>(2.8399999141693115-0.49000000953674316j)</t>
-  </si>
-  <si>
-    <t>(2.8399999141693115-0.5j)</t>
+    <t>(9.75-1.1100000143051147j)</t>
+  </si>
+  <si>
+    <t>(9.739999771118164-1.1299999952316284j)</t>
+  </si>
+  <si>
+    <t>(9.6899995803833-1.2000000476837158j)</t>
+  </si>
+  <si>
+    <t>(9.75-1.0800000429153442j)</t>
   </si>
   <si>
     <t>(9.680000305175781-0.9399999976158142j)</t>
@@ -395,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -459,7 +453,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -475,7 +469,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -483,7 +477,15 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
